--- a/biology/Zoologie/Gnathopalystes_kochi/Gnathopalystes_kochi.xlsx
+++ b/biology/Zoologie/Gnathopalystes_kochi/Gnathopalystes_kochi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gnathopalystes kochi est une espèce d'araignées aranéomorphes de la famille des sparassidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gnathopalystes kochi se rencontre en Birmanie, en Inde, en Indonésie (Java, Sumatra, Bornéo) et en Malaisie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gnathopalystes kochi se rencontre en Birmanie, en Inde, en Indonésie (Java, Sumatra, Bornéo) et en Malaisie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Gnathopalystes kochi, une femelle, présente un céphalothorax de 12 mm de longueur et de 9,3 mm de largeur[2]. De forme allongée et ovale, sa couleur est brun rouge très foncé à pubescence fauve blanchâtre, courte et serrée, mêlée, surtout en avant, de forts crins fauves[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Gnathopalystes kochi, une femelle, présente un céphalothorax de 12 mm de longueur et de 9,3 mm de largeur. De forme allongée et ovale, sa couleur est brun rouge très foncé à pubescence fauve blanchâtre, courte et serrée, mêlée, surtout en avant, de forts crins fauves.
 </t>
         </is>
       </c>
@@ -573,15 +589,87 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Gnathopalystes kochi (Simon, 1880)[3].
-L'espèce a été initialement classée dans le genre Palystes sous le protonyme Palystes kochi Simon, 1880[1],[2].
-Elle a été placée dans le genre Gnathopalystes par Croeser en 1996[4].
-Étymologie
-Son épithète spécifique, kochi, lui a été donnée en l'honneur de l'entomologiste et arachnologue allemand Ludwig Koch (1825-1908) qui possédait dans sa collection l'holotype de cette espèce[2].
-Publication originale
-E. Simon, « Révision de la famille des Sparassidae [Arachnides] », Actes de la Société Linnéenne de Bordeaux, France, vol. 34,‎ 1880, p. 223-351 (ISSN 0365-6934, lire en ligne, consulté le 23 mai 2024).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Gnathopalystes kochi (Simon, 1880).
+L'espèce a été initialement classée dans le genre Palystes sous le protonyme Palystes kochi Simon, 1880,.
+Elle a été placée dans le genre Gnathopalystes par Croeser en 1996.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gnathopalystes_kochi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gnathopalystes_kochi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, kochi, lui a été donnée en l'honneur de l'entomologiste et arachnologue allemand Ludwig Koch (1825-1908) qui possédait dans sa collection l'holotype de cette espèce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gnathopalystes_kochi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gnathopalystes_kochi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>E. Simon, « Révision de la famille des Sparassidae [Arachnides] », Actes de la Société Linnéenne de Bordeaux, France, vol. 34,‎ 1880, p. 223-351 (ISSN 0365-6934, lire en ligne, consulté le 23 mai 2024).</t>
         </is>
       </c>
     </row>
